--- a/protocolRGBms_social_30sec_20190808_low25_KBdebug20210126.xlsx
+++ b/protocolRGBms_social_30sec_20190808_low25_KBdebug20210126.xlsx
@@ -524,12 +524,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="6.14"/>
@@ -542,7 +542,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.43"/>
@@ -622,8 +622,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="n">
-        <f aca="false"> MAX((F2*G2+H2)*I2, (L2*M2+N2)*O2, (R2*S2+T2)*U2) +C3*1000</f>
-        <v>63994</v>
+        <f aca="false">MAX((F2*G2+H2)*I2, (L2*M2+N2)*O2, (R2*S2+T2)*U2) +C2*1000</f>
+        <v>62994</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>1</v>
@@ -688,8 +688,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="n">
-        <f aca="false"> MAX((F3*G3+H3)*I3, (L3*M3+N3)*O3, (R3*S3+T3)*U3) +C4*1000</f>
-        <v>65000</v>
+        <f aca="false">MAX((F3*G3+H3)*I3, (L3*M3+N3)*O3, (R3*S3+T3)*U3) +C3*1000</f>
+        <v>64000</v>
       </c>
       <c r="C3" s="16" t="n">
         <v>2</v>
@@ -754,8 +754,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="n">
-        <f aca="false"> MAX((F4*G4+H4)*I4, (L4*M4+N4)*O4, (R4*S4+T4)*U4) +C5*1000</f>
-        <v>66000</v>
+        <f aca="false">MAX((F4*G4+H4)*I4, (L4*M4+N4)*O4, (R4*S4+T4)*U4) +C4*1000</f>
+        <v>69000</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>3</v>
